--- a/out/production/Final Project/pythonProject/classData.xlsx
+++ b/out/production/Final Project/pythonProject/classData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qsebso/Desktop/CP2/Final_Project_Points_Selector_Project/pythonProject/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43003" uniqueCount="1024">
   <si>
     <t>Block #</t>
   </si>
@@ -60,12 +60,3058 @@
   </si>
   <si>
     <t>Spring</t>
+  </si>
+  <si>
+    <t>MB231</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2021S</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>HE122</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>DA304</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>GY370</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>MU199</t>
+  </si>
+  <si>
+    <t>EV128</t>
+  </si>
+  <si>
+    <t>SW310</t>
+  </si>
+  <si>
+    <t>CH490</t>
+  </si>
+  <si>
+    <t>CH251</t>
+  </si>
+  <si>
+    <t>PS304</t>
+  </si>
+  <si>
+    <t>CH250</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>MB365</t>
+  </si>
+  <si>
+    <t>GY140</t>
+  </si>
+  <si>
+    <t>FM225</t>
+  </si>
+  <si>
+    <t>EC403</t>
+  </si>
+  <si>
+    <t>FM102</t>
+  </si>
+  <si>
+    <t>PH203</t>
+  </si>
+  <si>
+    <t>FM101</t>
+  </si>
+  <si>
+    <t>PH204</t>
+  </si>
+  <si>
+    <t>EC407</t>
+  </si>
+  <si>
+    <t>EC406</t>
+  </si>
+  <si>
+    <t>CH383</t>
+  </si>
+  <si>
+    <t>CH382</t>
+  </si>
+  <si>
+    <t>RU201</t>
+  </si>
+  <si>
+    <t>RU202</t>
+  </si>
+  <si>
+    <t>RU206</t>
+  </si>
+  <si>
+    <t>PS313</t>
+  </si>
+  <si>
+    <t>IT302</t>
+  </si>
+  <si>
+    <t>PS200</t>
+  </si>
+  <si>
+    <t>MA123</t>
+  </si>
+  <si>
+    <t>IT304</t>
+  </si>
+  <si>
+    <t>PH208</t>
+  </si>
+  <si>
+    <t>EV351</t>
+  </si>
+  <si>
+    <t>PH452</t>
+  </si>
+  <si>
+    <t>PS209</t>
+  </si>
+  <si>
+    <t>PH456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- </t>
+  </si>
+  <si>
+    <t>CH471</t>
+  </si>
+  <si>
+    <t>MA117</t>
+  </si>
+  <si>
+    <t>AS411</t>
+  </si>
+  <si>
+    <t>AR320</t>
+  </si>
+  <si>
+    <t>MB325</t>
+  </si>
+  <si>
+    <t>PS329</t>
+  </si>
+  <si>
+    <t>CH351</t>
+  </si>
+  <si>
+    <t>AR204</t>
+  </si>
+  <si>
+    <t>CH475</t>
+  </si>
+  <si>
+    <t>PS325</t>
+  </si>
+  <si>
+    <t>PS203</t>
+  </si>
+  <si>
+    <t>MU162</t>
+  </si>
+  <si>
+    <t>MA251</t>
+  </si>
+  <si>
+    <t>MU163</t>
+  </si>
+  <si>
+    <t>MU284</t>
+  </si>
+  <si>
+    <t>MU164</t>
+  </si>
+  <si>
+    <t>MA256</t>
+  </si>
+  <si>
+    <t>MA375</t>
+  </si>
+  <si>
+    <t>MU160</t>
+  </si>
+  <si>
+    <t>MU169</t>
+  </si>
+  <si>
+    <t>MU165</t>
+  </si>
+  <si>
+    <t>MU286</t>
+  </si>
+  <si>
+    <t>MU166</t>
+  </si>
+  <si>
+    <t>MU167</t>
+  </si>
+  <si>
+    <t>FM205</t>
+  </si>
+  <si>
+    <t>MU168</t>
+  </si>
+  <si>
+    <t>FM203</t>
+  </si>
+  <si>
+    <t>PH101</t>
+  </si>
+  <si>
+    <t>FM202</t>
+  </si>
+  <si>
+    <t>FM200</t>
+  </si>
+  <si>
+    <t>SW322</t>
+  </si>
+  <si>
+    <t>CH480</t>
+  </si>
+  <si>
+    <t>PH226</t>
+  </si>
+  <si>
+    <t>EV212</t>
+  </si>
+  <si>
+    <t>EV333</t>
+  </si>
+  <si>
+    <t>SW200</t>
+  </si>
+  <si>
+    <t>RU104</t>
+  </si>
+  <si>
+    <t>AS401</t>
+  </si>
+  <si>
+    <t>MA126</t>
+  </si>
+  <si>
+    <t>RU102</t>
+  </si>
+  <si>
+    <t>MA125</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>CH241</t>
+  </si>
+  <si>
+    <t>PS336</t>
+  </si>
+  <si>
+    <t>CH367</t>
+  </si>
+  <si>
+    <t>MA129</t>
+  </si>
+  <si>
+    <t>IT204</t>
+  </si>
+  <si>
+    <t>IT203</t>
+  </si>
+  <si>
+    <t>IT202</t>
+  </si>
+  <si>
+    <t>MB397</t>
+  </si>
+  <si>
+    <t>IT320</t>
+  </si>
+  <si>
+    <t>PY281</t>
+  </si>
+  <si>
+    <t>PG300</t>
+  </si>
+  <si>
+    <t>EV320</t>
+  </si>
+  <si>
+    <t>FM310</t>
+  </si>
+  <si>
+    <t>EV209</t>
+  </si>
+  <si>
+    <t>CH107</t>
+  </si>
+  <si>
+    <t>CH108</t>
+  </si>
+  <si>
+    <t>DS244</t>
+  </si>
+  <si>
+    <t>PG308</t>
+  </si>
+  <si>
+    <t>AN258</t>
+  </si>
+  <si>
+    <t>FM302</t>
+  </si>
+  <si>
+    <t>PY178</t>
+  </si>
+  <si>
+    <t>CH342</t>
+  </si>
+  <si>
+    <t>IT104</t>
+  </si>
+  <si>
+    <t>MB131</t>
+  </si>
+  <si>
+    <t>IT103</t>
+  </si>
+  <si>
+    <t>IT102</t>
+  </si>
+  <si>
+    <t>DS232</t>
+  </si>
+  <si>
+    <t>MB497</t>
+  </si>
+  <si>
+    <t>BE362</t>
+  </si>
+  <si>
+    <t>EV421</t>
+  </si>
+  <si>
+    <t>CP275</t>
+  </si>
+  <si>
+    <t>CP274</t>
+  </si>
+  <si>
+    <t>PS404</t>
+  </si>
+  <si>
+    <t>DS224</t>
+  </si>
+  <si>
+    <t>GR206</t>
+  </si>
+  <si>
+    <t>DS105</t>
+  </si>
+  <si>
+    <t>GR201</t>
+  </si>
+  <si>
+    <t>GR202</t>
+  </si>
+  <si>
+    <t>GR320</t>
+  </si>
+  <si>
+    <t>BE370</t>
+  </si>
+  <si>
+    <t>DS229</t>
+  </si>
+  <si>
+    <t>JA302</t>
+  </si>
+  <si>
+    <t>RU308</t>
+  </si>
+  <si>
+    <t>FM400</t>
+  </si>
+  <si>
+    <t>PS419</t>
+  </si>
+  <si>
+    <t>PH302</t>
+  </si>
+  <si>
+    <t>PH303</t>
+  </si>
+  <si>
+    <t>RU306</t>
+  </si>
+  <si>
+    <t>PS410</t>
+  </si>
+  <si>
+    <t>PS412</t>
+  </si>
+  <si>
+    <t>RU305</t>
+  </si>
+  <si>
+    <t>DS215</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>PS380</t>
+  </si>
+  <si>
+    <t>SO314</t>
+  </si>
+  <si>
+    <t>BE100</t>
+  </si>
+  <si>
+    <t>DS216</t>
+  </si>
+  <si>
+    <t>DS218</t>
+  </si>
+  <si>
+    <t>DS219</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>JA206</t>
+  </si>
+  <si>
+    <t>SW272</t>
+  </si>
+  <si>
+    <t>BE105</t>
+  </si>
+  <si>
+    <t>SW395</t>
+  </si>
+  <si>
+    <t>CP499</t>
+  </si>
+  <si>
+    <t>SW273</t>
+  </si>
+  <si>
+    <t>BE106</t>
+  </si>
+  <si>
+    <t>BE107</t>
+  </si>
+  <si>
+    <t>AN220</t>
+  </si>
+  <si>
+    <t>AN102</t>
+  </si>
+  <si>
+    <t>CH410</t>
+  </si>
+  <si>
+    <t>GR104</t>
+  </si>
+  <si>
+    <t>GR102</t>
+  </si>
+  <si>
+    <t>GR101</t>
+  </si>
+  <si>
+    <t>FR302</t>
+  </si>
+  <si>
+    <t>GR220</t>
+  </si>
+  <si>
+    <t>FR304</t>
+  </si>
+  <si>
+    <t>JA202</t>
+  </si>
+  <si>
+    <t>FR305</t>
+  </si>
+  <si>
+    <t>BE475</t>
+  </si>
+  <si>
+    <t>JA201</t>
+  </si>
+  <si>
+    <t>FR308</t>
+  </si>
+  <si>
+    <t>RM200</t>
+  </si>
+  <si>
+    <t>FR309</t>
+  </si>
+  <si>
+    <t>PH282</t>
+  </si>
+  <si>
+    <t>CH301</t>
+  </si>
+  <si>
+    <t>SO451</t>
+  </si>
+  <si>
+    <t>GS205</t>
+  </si>
+  <si>
+    <t>JA350</t>
+  </si>
+  <si>
+    <t>FR432</t>
+  </si>
+  <si>
+    <t>SP306</t>
+  </si>
+  <si>
+    <t>SP305</t>
+  </si>
+  <si>
+    <t>FR317</t>
+  </si>
+  <si>
+    <t>SP302</t>
+  </si>
+  <si>
+    <t>BE440</t>
+  </si>
+  <si>
+    <t>BE202</t>
+  </si>
+  <si>
+    <t>BE208</t>
+  </si>
+  <si>
+    <t>AN243</t>
+  </si>
+  <si>
+    <t>CP115</t>
+  </si>
+  <si>
+    <t>AN124</t>
+  </si>
+  <si>
+    <t>AN245</t>
+  </si>
+  <si>
+    <t>GS216</t>
+  </si>
+  <si>
+    <t>FR320</t>
+  </si>
+  <si>
+    <t>PS292</t>
+  </si>
+  <si>
+    <t>FR201</t>
+  </si>
+  <si>
+    <t>FR202</t>
+  </si>
+  <si>
+    <t>FR204</t>
+  </si>
+  <si>
+    <t>JA101</t>
+  </si>
+  <si>
+    <t>PS290</t>
+  </si>
+  <si>
+    <t>DS307</t>
+  </si>
+  <si>
+    <t>JA104</t>
+  </si>
+  <si>
+    <t>CP365</t>
+  </si>
+  <si>
+    <t>AN237</t>
+  </si>
+  <si>
+    <t>CP122</t>
+  </si>
+  <si>
+    <t>AN238</t>
+  </si>
+  <si>
+    <t>AN230</t>
+  </si>
+  <si>
+    <t>PS222</t>
+  </si>
+  <si>
+    <t>PS342</t>
+  </si>
+  <si>
+    <t>GS222</t>
+  </si>
+  <si>
+    <t>GS100</t>
+  </si>
+  <si>
+    <t>DS415</t>
+  </si>
+  <si>
+    <t>DS416</t>
+  </si>
+  <si>
+    <t>CO121</t>
+  </si>
+  <si>
+    <t>PH476</t>
+  </si>
+  <si>
+    <t>SW352</t>
+  </si>
+  <si>
+    <t>AN308</t>
+  </si>
+  <si>
+    <t>CO120</t>
+  </si>
+  <si>
+    <t>RU256</t>
+  </si>
+  <si>
+    <t>PS344</t>
+  </si>
+  <si>
+    <t>PS226</t>
+  </si>
+  <si>
+    <t>PS225</t>
+  </si>
+  <si>
+    <t>GS118</t>
+  </si>
+  <si>
+    <t>FR101</t>
+  </si>
+  <si>
+    <t>FR102</t>
+  </si>
+  <si>
+    <t>PS470</t>
+  </si>
+  <si>
+    <t>GS233</t>
+  </si>
+  <si>
+    <t>FR104</t>
+  </si>
+  <si>
+    <t>GS113</t>
+  </si>
+  <si>
+    <t>PH243</t>
+  </si>
+  <si>
+    <t>PH244</t>
+  </si>
+  <si>
+    <t>CO255</t>
+  </si>
+  <si>
+    <t>PH245</t>
+  </si>
+  <si>
+    <t>CO250</t>
+  </si>
+  <si>
+    <t>PH247</t>
+  </si>
+  <si>
+    <t>SW102</t>
+  </si>
+  <si>
+    <t>PH248</t>
+  </si>
+  <si>
+    <t>CP341</t>
+  </si>
+  <si>
+    <t>CO131</t>
+  </si>
+  <si>
+    <t>PS235</t>
+  </si>
+  <si>
+    <t>PS355</t>
+  </si>
+  <si>
+    <t>PS236</t>
+  </si>
+  <si>
+    <t>PS242</t>
+  </si>
+  <si>
+    <t>GS247</t>
+  </si>
+  <si>
+    <t>HK204</t>
+  </si>
+  <si>
+    <t>SW251</t>
+  </si>
+  <si>
+    <t>AN207</t>
+  </si>
+  <si>
+    <t>AN208</t>
+  </si>
+  <si>
+    <t>HK321</t>
+  </si>
+  <si>
+    <t>AN320</t>
+  </si>
+  <si>
+    <t>CN259</t>
+  </si>
+  <si>
+    <t>BE412</t>
+  </si>
+  <si>
+    <t>BE410</t>
+  </si>
+  <si>
+    <t>AN315</t>
+  </si>
+  <si>
+    <t>HK330</t>
+  </si>
+  <si>
+    <t>RM300</t>
+  </si>
+  <si>
+    <t>PH263</t>
+  </si>
+  <si>
+    <t>CC120</t>
+  </si>
+  <si>
+    <t>PY408</t>
+  </si>
+  <si>
+    <t>TH328</t>
+  </si>
+  <si>
+    <t>TH206</t>
+  </si>
+  <si>
+    <t>TH329</t>
+  </si>
+  <si>
+    <t>TH208</t>
+  </si>
+  <si>
+    <t>FG258</t>
+  </si>
+  <si>
+    <t>GS260</t>
+  </si>
+  <si>
+    <t>GS391</t>
+  </si>
+  <si>
+    <t>GS390</t>
+  </si>
+  <si>
+    <t>CO200</t>
+  </si>
+  <si>
+    <t>CN350</t>
+  </si>
+  <si>
+    <t>SO390</t>
+  </si>
+  <si>
+    <t>SO270</t>
+  </si>
+  <si>
+    <t>PC420</t>
+  </si>
+  <si>
+    <t>TH210</t>
+  </si>
+  <si>
+    <t>SP350</t>
+  </si>
+  <si>
+    <t>GS399</t>
+  </si>
+  <si>
+    <t>GS395</t>
+  </si>
+  <si>
+    <t>GS392</t>
+  </si>
+  <si>
+    <t>HK354</t>
+  </si>
+  <si>
+    <t>CP307</t>
+  </si>
+  <si>
+    <t>PA250</t>
+  </si>
+  <si>
+    <t>RE200</t>
+  </si>
+  <si>
+    <t>PY412</t>
+  </si>
+  <si>
+    <t>TH223</t>
+  </si>
+  <si>
+    <t>TH102</t>
+  </si>
+  <si>
+    <t>TH101</t>
+  </si>
+  <si>
+    <t>TH304</t>
+  </si>
+  <si>
+    <t>PC311</t>
+  </si>
+  <si>
+    <t>HK125</t>
+  </si>
+  <si>
+    <t>CO300</t>
+  </si>
+  <si>
+    <t>CC106</t>
+  </si>
+  <si>
+    <t>PC320</t>
+  </si>
+  <si>
+    <t>CC105</t>
+  </si>
+  <si>
+    <t>SO292</t>
+  </si>
+  <si>
+    <t>SO290</t>
+  </si>
+  <si>
+    <t>CC101</t>
+  </si>
+  <si>
+    <t>RE110</t>
+  </si>
+  <si>
+    <t>PY426</t>
+  </si>
+  <si>
+    <t>CL160</t>
+  </si>
+  <si>
+    <t>CO431</t>
+  </si>
+  <si>
+    <t>HK130</t>
+  </si>
+  <si>
+    <t>CN101</t>
+  </si>
+  <si>
+    <t>RM185</t>
+  </si>
+  <si>
+    <t>PY430</t>
+  </si>
+  <si>
+    <t>SO280</t>
+  </si>
+  <si>
+    <t>CP405</t>
+  </si>
+  <si>
+    <t>CN104</t>
+  </si>
+  <si>
+    <t>TH200</t>
+  </si>
+  <si>
+    <t>SO112</t>
+  </si>
+  <si>
+    <t>SP201</t>
+  </si>
+  <si>
+    <t>SO113</t>
+  </si>
+  <si>
+    <t>ED260</t>
+  </si>
+  <si>
+    <t>FG219</t>
+  </si>
+  <si>
+    <t>FR299</t>
+  </si>
+  <si>
+    <t>SO118</t>
+  </si>
+  <si>
+    <t>MU435</t>
+  </si>
+  <si>
+    <t>SO116</t>
+  </si>
+  <si>
+    <t>SO235</t>
+  </si>
+  <si>
+    <t>SP204</t>
+  </si>
+  <si>
+    <t>HK260</t>
+  </si>
+  <si>
+    <t>EN280</t>
+  </si>
+  <si>
+    <t>RM251</t>
+  </si>
+  <si>
+    <t>EN285</t>
+  </si>
+  <si>
+    <t>EN286</t>
+  </si>
+  <si>
+    <t>SO101</t>
+  </si>
+  <si>
+    <t>SP433</t>
+  </si>
+  <si>
+    <t>ED250</t>
+  </si>
+  <si>
+    <t>FG322</t>
+  </si>
+  <si>
+    <t>SO228</t>
+  </si>
+  <si>
+    <t>FG200</t>
+  </si>
+  <si>
+    <t>SO229</t>
+  </si>
+  <si>
+    <t>SP316</t>
+  </si>
+  <si>
+    <t>CL260</t>
+  </si>
+  <si>
+    <t>CN206</t>
+  </si>
+  <si>
+    <t>EN399</t>
+  </si>
+  <si>
+    <t>EC285</t>
+  </si>
+  <si>
+    <t>ED131</t>
+  </si>
+  <si>
+    <t>AH275</t>
+  </si>
+  <si>
+    <t>CN201</t>
+  </si>
+  <si>
+    <t>HY410</t>
+  </si>
+  <si>
+    <t>CN202</t>
+  </si>
+  <si>
+    <t>FG318</t>
+  </si>
+  <si>
+    <t>ED360</t>
+  </si>
+  <si>
+    <t>SP101</t>
+  </si>
+  <si>
+    <t>SO130</t>
+  </si>
+  <si>
+    <t>RE305</t>
+  </si>
+  <si>
+    <t>FG312</t>
+  </si>
+  <si>
+    <t>SP104</t>
+  </si>
+  <si>
+    <t>EN380</t>
+  </si>
+  <si>
+    <t>EN381</t>
+  </si>
+  <si>
+    <t>HY308</t>
+  </si>
+  <si>
+    <t>CL114</t>
+  </si>
+  <si>
+    <t>HY304</t>
+  </si>
+  <si>
+    <t>CL111</t>
+  </si>
+  <si>
+    <t>HY420</t>
+  </si>
+  <si>
+    <t>CL236</t>
+  </si>
+  <si>
+    <t>EN370</t>
+  </si>
+  <si>
+    <t>EN250</t>
+  </si>
+  <si>
+    <t>CL125</t>
+  </si>
+  <si>
+    <t>EC385</t>
+  </si>
+  <si>
+    <t>ED477</t>
+  </si>
+  <si>
+    <t>CN302</t>
+  </si>
+  <si>
+    <t>CL218</t>
+  </si>
+  <si>
+    <t>MA421</t>
+  </si>
+  <si>
+    <t>MU114</t>
+  </si>
+  <si>
+    <t>MU116</t>
+  </si>
+  <si>
+    <t>MU117</t>
+  </si>
+  <si>
+    <t>MU110</t>
+  </si>
+  <si>
+    <t>MU112</t>
+  </si>
+  <si>
+    <t>MU113</t>
+  </si>
+  <si>
+    <t>MU118</t>
+  </si>
+  <si>
+    <t>EN481</t>
+  </si>
+  <si>
+    <t>RE170</t>
+  </si>
+  <si>
+    <t>PY120</t>
+  </si>
+  <si>
+    <t>EN485</t>
+  </si>
+  <si>
+    <t>HY206</t>
+  </si>
+  <si>
+    <t>AS114</t>
+  </si>
+  <si>
+    <t>ED101</t>
+  </si>
+  <si>
+    <t>CL212</t>
+  </si>
+  <si>
+    <t>HY205</t>
+  </si>
+  <si>
+    <t>PY123</t>
+  </si>
+  <si>
+    <t>EC372</t>
+  </si>
+  <si>
+    <t>PC261</t>
+  </si>
+  <si>
+    <t>MA418</t>
+  </si>
+  <si>
+    <t>AH121</t>
+  </si>
+  <si>
+    <t>PC141</t>
+  </si>
+  <si>
+    <t>HY200</t>
+  </si>
+  <si>
+    <t>MA416</t>
+  </si>
+  <si>
+    <t>EC377</t>
+  </si>
+  <si>
+    <t>CL214</t>
+  </si>
+  <si>
+    <t>AS110</t>
+  </si>
+  <si>
+    <t>MU227</t>
+  </si>
+  <si>
+    <t>MU222</t>
+  </si>
+  <si>
+    <t>MU107</t>
+  </si>
+  <si>
+    <t>MU228</t>
+  </si>
+  <si>
+    <t>CL220</t>
+  </si>
+  <si>
+    <t>ED579</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>EN350</t>
+  </si>
+  <si>
+    <t>PY374</t>
+  </si>
+  <si>
+    <t>AS103</t>
+  </si>
+  <si>
+    <t>ED577</t>
+  </si>
+  <si>
+    <t>CL101</t>
+  </si>
+  <si>
+    <t>EC241</t>
+  </si>
+  <si>
+    <t>CL221</t>
+  </si>
+  <si>
+    <t>RE281</t>
+  </si>
+  <si>
+    <t>RE160</t>
+  </si>
+  <si>
+    <t>AS102</t>
+  </si>
+  <si>
+    <t>AH231</t>
+  </si>
+  <si>
+    <t>HY212</t>
+  </si>
+  <si>
+    <t>ED572</t>
+  </si>
+  <si>
+    <t>AS226</t>
+  </si>
+  <si>
+    <t>EC245</t>
+  </si>
+  <si>
+    <t>CN401</t>
+  </si>
+  <si>
+    <t>ED210</t>
+  </si>
+  <si>
+    <t>CL104</t>
+  </si>
+  <si>
+    <t>ED574</t>
+  </si>
+  <si>
+    <t>HY231</t>
+  </si>
+  <si>
+    <t>HY110</t>
+  </si>
+  <si>
+    <t>BU325</t>
+  </si>
+  <si>
+    <t>DA125</t>
+  </si>
+  <si>
+    <t>BU205</t>
+  </si>
+  <si>
+    <t>MU217</t>
+  </si>
+  <si>
+    <t>BU330</t>
+  </si>
+  <si>
+    <t>CL312</t>
+  </si>
+  <si>
+    <t>EN221</t>
+  </si>
+  <si>
+    <t>ED564</t>
+  </si>
+  <si>
+    <t>EC110</t>
+  </si>
+  <si>
+    <t>RS210</t>
+  </si>
+  <si>
+    <t>HY226</t>
+  </si>
+  <si>
+    <t>EN225</t>
+  </si>
+  <si>
+    <t>EC355</t>
+  </si>
+  <si>
+    <t>CL314</t>
+  </si>
+  <si>
+    <t>ED200</t>
+  </si>
+  <si>
+    <t>MA410</t>
+  </si>
+  <si>
+    <t>MU202</t>
+  </si>
+  <si>
+    <t>GY310</t>
+  </si>
+  <si>
+    <t>EC348</t>
+  </si>
+  <si>
+    <t>EC347</t>
+  </si>
+  <si>
+    <t>MA408</t>
+  </si>
+  <si>
+    <t>GY315</t>
+  </si>
+  <si>
+    <t>ED311</t>
+  </si>
+  <si>
+    <t>CL202</t>
+  </si>
+  <si>
+    <t>HY237</t>
+  </si>
+  <si>
+    <t>RS200</t>
+  </si>
+  <si>
+    <t>MA400</t>
+  </si>
+  <si>
+    <t>EC102</t>
+  </si>
+  <si>
+    <t>AH255</t>
+  </si>
+  <si>
+    <t>CL204</t>
+  </si>
+  <si>
+    <t>EC101</t>
+  </si>
+  <si>
+    <t>HE322</t>
+  </si>
+  <si>
+    <t>PC333</t>
+  </si>
+  <si>
+    <t>MA220</t>
+  </si>
+  <si>
+    <t>MU159</t>
+  </si>
+  <si>
+    <t>MU155</t>
+  </si>
+  <si>
+    <t>MU398</t>
+  </si>
+  <si>
+    <t>GY205</t>
+  </si>
+  <si>
+    <t>ED547</t>
+  </si>
+  <si>
+    <t>RE372</t>
+  </si>
+  <si>
+    <t>RE130</t>
+  </si>
+  <si>
+    <t>AR101</t>
+  </si>
+  <si>
+    <t>EC330</t>
+  </si>
+  <si>
+    <t>ED543</t>
+  </si>
+  <si>
+    <t>PY202</t>
+  </si>
+  <si>
+    <t>AH203</t>
+  </si>
+  <si>
+    <t>PC341</t>
+  </si>
+  <si>
+    <t>AR104</t>
+  </si>
+  <si>
+    <t>AH200</t>
+  </si>
+  <si>
+    <t>HY244</t>
+  </si>
+  <si>
+    <t>CL412</t>
+  </si>
+  <si>
+    <t>MA217</t>
+  </si>
+  <si>
+    <t>PC108</t>
+  </si>
+  <si>
+    <t>MU140</t>
+  </si>
+  <si>
+    <t>PC349</t>
+  </si>
+  <si>
+    <t>DA237</t>
+  </si>
+  <si>
+    <t>MB201</t>
+  </si>
+  <si>
+    <t>MA110</t>
+  </si>
+  <si>
+    <t>MU147</t>
+  </si>
+  <si>
+    <t>MU148</t>
+  </si>
+  <si>
+    <t>MU149</t>
+  </si>
+  <si>
+    <t>BU316</t>
+  </si>
+  <si>
+    <t>GY100</t>
+  </si>
+  <si>
+    <t>DA230</t>
+  </si>
+  <si>
+    <t>MU145</t>
+  </si>
+  <si>
+    <t>MU146</t>
+  </si>
+  <si>
+    <t>EC205</t>
+  </si>
+  <si>
+    <t>EC325</t>
+  </si>
+  <si>
+    <t>AS301</t>
+  </si>
+  <si>
+    <t>MB315</t>
+  </si>
+  <si>
+    <t>EN310</t>
+  </si>
+  <si>
+    <t>PC354</t>
+  </si>
+  <si>
+    <t>AS305</t>
+  </si>
+  <si>
+    <t>PA290</t>
+  </si>
+  <si>
+    <t>CL304</t>
+  </si>
+  <si>
+    <t>EC201</t>
+  </si>
+  <si>
+    <t>CL302</t>
+  </si>
+  <si>
+    <t>TH224</t>
+  </si>
+  <si>
+    <t>MU130</t>
+  </si>
+  <si>
+    <t>MU251</t>
+  </si>
+  <si>
+    <t>MU131</t>
+  </si>
+  <si>
+    <t>TH105</t>
+  </si>
+  <si>
+    <t>HE222</t>
+  </si>
+  <si>
+    <t>MA201</t>
+  </si>
+  <si>
+    <t>MA321</t>
+  </si>
+  <si>
+    <t>PC358</t>
+  </si>
+  <si>
+    <t>AS221</t>
+  </si>
+  <si>
+    <t>MU136</t>
+  </si>
+  <si>
+    <t>DA200</t>
+  </si>
+  <si>
+    <t>MU137</t>
+  </si>
+  <si>
+    <t>MU138</t>
+  </si>
+  <si>
+    <t>MU139</t>
+  </si>
+  <si>
+    <t>MU132</t>
+  </si>
+  <si>
+    <t>MU133</t>
+  </si>
+  <si>
+    <t>EV391</t>
+  </si>
+  <si>
+    <t>MU134</t>
+  </si>
+  <si>
+    <t>EV271</t>
+  </si>
+  <si>
+    <t>MU135</t>
+  </si>
+  <si>
+    <t>EC316</t>
+  </si>
+  <si>
+    <t>EV145</t>
+  </si>
+  <si>
+    <t>MA315</t>
+  </si>
+  <si>
+    <t>PY100</t>
+  </si>
+  <si>
+    <t>CH275</t>
+  </si>
+  <si>
+    <t>PY344</t>
+  </si>
+  <si>
+    <t>AH105</t>
+  </si>
+  <si>
+    <t>PC241</t>
+  </si>
+  <si>
+    <t>MB401</t>
+  </si>
+  <si>
+    <t>AS212</t>
+  </si>
+  <si>
+    <t>PC242</t>
+  </si>
+  <si>
+    <t>CH398</t>
+  </si>
+  <si>
+    <t>TH110</t>
+  </si>
+  <si>
+    <t>AS218</t>
+  </si>
+  <si>
+    <t>PY105</t>
+  </si>
+  <si>
+    <t>PC361</t>
+  </si>
+  <si>
+    <t>PC129</t>
+  </si>
+  <si>
+    <t>AS210</t>
+  </si>
+  <si>
+    <t>DA211</t>
+  </si>
+  <si>
+    <t>MU126</t>
+  </si>
+  <si>
+    <t>MU127</t>
+  </si>
+  <si>
+    <t>MU128</t>
+  </si>
+  <si>
+    <t>MU121</t>
+  </si>
+  <si>
+    <t>MU122</t>
+  </si>
+  <si>
+    <t>MU123</t>
+  </si>
+  <si>
+    <t>MU124</t>
+  </si>
+  <si>
+    <t>EC425</t>
+  </si>
+  <si>
+    <t>GY115</t>
+  </si>
+  <si>
+    <t>EC303</t>
+  </si>
+  <si>
+    <t>MU129</t>
+  </si>
+  <si>
+    <t>PC133</t>
+  </si>
+  <si>
+    <t>RE261</t>
+  </si>
+  <si>
+    <t>MA204</t>
+  </si>
+  <si>
+    <t>AS203</t>
+  </si>
+  <si>
+    <t>ED510</t>
+  </si>
+  <si>
+    <t>AS201</t>
+  </si>
+  <si>
+    <t>TH240</t>
+  </si>
+  <si>
+    <t>PC132</t>
+  </si>
+  <si>
+    <t>EC302</t>
+  </si>
+  <si>
+    <t>EC301</t>
+  </si>
+  <si>
+    <t>HY399</t>
+  </si>
+  <si>
+    <t>AS207</t>
+  </si>
+  <si>
+    <t>CL402</t>
+  </si>
+  <si>
+    <t>AH210</t>
+  </si>
+  <si>
+    <t>2022S</t>
+  </si>
+  <si>
+    <t>EV127</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>PH314</t>
+  </si>
+  <si>
+    <t>PS319</t>
+  </si>
+  <si>
+    <t>PS312</t>
+  </si>
+  <si>
+    <t>EV352</t>
+  </si>
+  <si>
+    <t>GY150</t>
+  </si>
+  <si>
+    <t>FM210</t>
+  </si>
+  <si>
+    <t>EV343</t>
+  </si>
+  <si>
+    <t>SW211</t>
+  </si>
+  <si>
+    <t>MU161</t>
+  </si>
+  <si>
+    <t>PS330</t>
+  </si>
+  <si>
+    <t>PS339</t>
+  </si>
+  <si>
+    <t>PY162</t>
+  </si>
+  <si>
+    <t>PG302</t>
+  </si>
+  <si>
+    <t>EV323</t>
+  </si>
+  <si>
+    <t>CH104</t>
+  </si>
+  <si>
+    <t>PG305</t>
+  </si>
+  <si>
+    <t>PY296</t>
+  </si>
+  <si>
+    <t>GS401</t>
+  </si>
+  <si>
+    <t>BE240</t>
+  </si>
+  <si>
+    <t>PG316</t>
+  </si>
+  <si>
+    <t>PS408</t>
+  </si>
+  <si>
+    <t>PG204</t>
+  </si>
+  <si>
+    <t>EV309</t>
+  </si>
+  <si>
+    <t>CH204</t>
+  </si>
+  <si>
+    <t>DS103</t>
+  </si>
+  <si>
+    <t>DS106</t>
+  </si>
+  <si>
+    <t>SO311</t>
+  </si>
+  <si>
+    <t>GS300</t>
+  </si>
+  <si>
+    <t>BE341</t>
+  </si>
+  <si>
+    <t>IT120</t>
+  </si>
+  <si>
+    <t>BE345</t>
+  </si>
+  <si>
+    <t>AN101</t>
+  </si>
+  <si>
+    <t>DS204</t>
+  </si>
+  <si>
+    <t>FR300</t>
+  </si>
+  <si>
+    <t>FR306</t>
+  </si>
+  <si>
+    <t>PG199</t>
+  </si>
+  <si>
+    <t>AN219</t>
+  </si>
+  <si>
+    <t>PH285</t>
+  </si>
+  <si>
+    <t>SP304</t>
+  </si>
+  <si>
+    <t>FR319</t>
+  </si>
+  <si>
+    <t>GS213</t>
+  </si>
+  <si>
+    <t>JA221</t>
+  </si>
+  <si>
+    <t>FR329</t>
+  </si>
+  <si>
+    <t>AN235</t>
+  </si>
+  <si>
+    <t>RU255</t>
+  </si>
+  <si>
+    <t>HK306</t>
+  </si>
+  <si>
+    <t>AN301</t>
+  </si>
+  <si>
+    <t>GS232</t>
+  </si>
+  <si>
+    <t>SW220</t>
+  </si>
+  <si>
+    <t>CO130</t>
+  </si>
+  <si>
+    <t>PH360</t>
+  </si>
+  <si>
+    <t>AN326</t>
+  </si>
+  <si>
+    <t>AN206</t>
+  </si>
+  <si>
+    <t>PS372</t>
+  </si>
+  <si>
+    <t>GS250</t>
+  </si>
+  <si>
+    <t>SW241</t>
+  </si>
+  <si>
+    <t>PH140</t>
+  </si>
+  <si>
+    <t>AN311</t>
+  </si>
+  <si>
+    <t>RE207</t>
+  </si>
+  <si>
+    <t>SP360</t>
+  </si>
+  <si>
+    <t>TH215</t>
+  </si>
+  <si>
+    <t>TH217</t>
+  </si>
+  <si>
+    <t>FG240</t>
+  </si>
+  <si>
+    <t>PY420</t>
+  </si>
+  <si>
+    <t>CC104</t>
+  </si>
+  <si>
+    <t>PY300</t>
+  </si>
+  <si>
+    <t>PY305</t>
+  </si>
+  <si>
+    <t>RE213</t>
+  </si>
+  <si>
+    <t>PC210</t>
+  </si>
+  <si>
+    <t>RE101</t>
+  </si>
+  <si>
+    <t>PY435</t>
+  </si>
+  <si>
+    <t>H-5</t>
+  </si>
+  <si>
+    <t>FG218</t>
+  </si>
+  <si>
+    <t>FG216</t>
+  </si>
+  <si>
+    <t>ED495</t>
+  </si>
+  <si>
+    <t>SW182</t>
+  </si>
+  <si>
+    <t>FG316</t>
+  </si>
+  <si>
+    <t>FG308</t>
+  </si>
+  <si>
+    <t>SO246</t>
+  </si>
+  <si>
+    <t>FG302</t>
+  </si>
+  <si>
+    <t>EN372</t>
+  </si>
+  <si>
+    <t>EN252</t>
+  </si>
+  <si>
+    <t>ED235</t>
+  </si>
+  <si>
+    <t>MA300</t>
+  </si>
+  <si>
+    <t>GY400</t>
+  </si>
+  <si>
+    <t>BU110</t>
+  </si>
+  <si>
+    <t>EN240</t>
+  </si>
+  <si>
+    <t>PY362</t>
+  </si>
+  <si>
+    <t>PY363</t>
+  </si>
+  <si>
+    <t>EN365</t>
+  </si>
+  <si>
+    <t>HY324</t>
+  </si>
+  <si>
+    <t>HY202</t>
+  </si>
+  <si>
+    <t>MA417</t>
+  </si>
+  <si>
+    <t>BU116</t>
+  </si>
+  <si>
+    <t>H-7</t>
+  </si>
+  <si>
+    <t>CL222</t>
+  </si>
+  <si>
+    <t>PY135</t>
+  </si>
+  <si>
+    <t>AS261</t>
+  </si>
+  <si>
+    <t>HY350</t>
+  </si>
+  <si>
+    <t>BU326</t>
+  </si>
+  <si>
+    <t>PY260</t>
+  </si>
+  <si>
+    <t>HY228</t>
+  </si>
+  <si>
+    <t>EC351</t>
+  </si>
+  <si>
+    <t>MU325</t>
+  </si>
+  <si>
+    <t>MU200</t>
+  </si>
+  <si>
+    <t>EC100</t>
+  </si>
+  <si>
+    <t>AS126</t>
+  </si>
+  <si>
+    <t>MA340</t>
+  </si>
+  <si>
+    <t>AH208</t>
+  </si>
+  <si>
+    <t>BU310</t>
+  </si>
+  <si>
+    <t>RE371</t>
+  </si>
+  <si>
+    <t>HY249</t>
+  </si>
+  <si>
+    <t>AS310</t>
+  </si>
+  <si>
+    <t>PY205</t>
+  </si>
+  <si>
+    <t>MB321</t>
+  </si>
+  <si>
+    <t>GY335</t>
+  </si>
+  <si>
+    <t>PY332</t>
+  </si>
+  <si>
+    <t>HY274</t>
+  </si>
+  <si>
+    <t>TH229</t>
+  </si>
+  <si>
+    <t>PC357</t>
+  </si>
+  <si>
+    <t>AS220</t>
+  </si>
+  <si>
+    <t>HY271</t>
+  </si>
+  <si>
+    <t>MB410</t>
+  </si>
+  <si>
+    <t>GY101</t>
+  </si>
+  <si>
+    <t>MB301</t>
+  </si>
+  <si>
+    <t>DA214</t>
+  </si>
+  <si>
+    <t>EV375</t>
+  </si>
+  <si>
+    <t>RE140</t>
+  </si>
+  <si>
+    <t>MA325</t>
+  </si>
+  <si>
+    <t>PY112</t>
+  </si>
+  <si>
+    <t>2023S</t>
+  </si>
+  <si>
+    <t>DA425</t>
+  </si>
+  <si>
+    <t>GY250</t>
+  </si>
+  <si>
+    <t>PS309</t>
+  </si>
+  <si>
+    <t>PS306</t>
+  </si>
+  <si>
+    <t>SW300</t>
+  </si>
+  <si>
+    <t>PS321</t>
+  </si>
+  <si>
+    <t>CH117</t>
+  </si>
+  <si>
+    <t>PH327</t>
+  </si>
+  <si>
+    <t>PS326</t>
+  </si>
+  <si>
+    <t>PS328</t>
+  </si>
+  <si>
+    <t>CH113</t>
+  </si>
+  <si>
+    <t>MU285</t>
+  </si>
+  <si>
+    <t>PS331</t>
+  </si>
+  <si>
+    <t>RU101</t>
+  </si>
+  <si>
+    <t>PH342</t>
+  </si>
+  <si>
+    <t>CH366</t>
+  </si>
+  <si>
+    <t>AN262</t>
+  </si>
+  <si>
+    <t>IT431</t>
+  </si>
+  <si>
+    <t>FM300</t>
+  </si>
+  <si>
+    <t>EV316</t>
+  </si>
+  <si>
+    <t>EV431</t>
+  </si>
+  <si>
+    <t>MB375</t>
+  </si>
+  <si>
+    <t>CH201</t>
+  </si>
+  <si>
+    <t>PS381</t>
+  </si>
+  <si>
+    <t>SO318</t>
+  </si>
+  <si>
+    <t>AN105</t>
+  </si>
+  <si>
+    <t>RM215</t>
+  </si>
+  <si>
+    <t>PS274</t>
+  </si>
+  <si>
+    <t>DS200</t>
+  </si>
+  <si>
+    <t>JA250</t>
+  </si>
+  <si>
+    <t>JA252</t>
+  </si>
+  <si>
+    <t>GS350</t>
+  </si>
+  <si>
+    <t>GS120</t>
+  </si>
+  <si>
+    <t>SO411</t>
+  </si>
+  <si>
+    <t>H-6</t>
+  </si>
+  <si>
+    <t>AN328</t>
+  </si>
+  <si>
+    <t>GS257</t>
+  </si>
+  <si>
+    <t>PH380</t>
+  </si>
+  <si>
+    <t>PH142</t>
+  </si>
+  <si>
+    <t>TH207</t>
+  </si>
+  <si>
+    <t>GS261</t>
+  </si>
+  <si>
+    <t>RE210</t>
+  </si>
+  <si>
+    <t>SO267</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>FG110</t>
+  </si>
+  <si>
+    <t>HK120</t>
+  </si>
+  <si>
+    <t>CO430</t>
+  </si>
+  <si>
+    <t>EN296</t>
+  </si>
+  <si>
+    <t>SP370</t>
+  </si>
+  <si>
+    <t>MS250</t>
+  </si>
+  <si>
+    <t>MS247</t>
+  </si>
+  <si>
+    <t>FG206</t>
+  </si>
+  <si>
+    <t>EN270</t>
+  </si>
+  <si>
+    <t>EN391</t>
+  </si>
+  <si>
+    <t>EN398</t>
+  </si>
+  <si>
+    <t>EN277</t>
+  </si>
+  <si>
+    <t>RE300</t>
+  </si>
+  <si>
+    <t>SO240</t>
+  </si>
+  <si>
+    <t>EN254</t>
+  </si>
+  <si>
+    <t>CN301</t>
+  </si>
+  <si>
+    <t>FG416</t>
+  </si>
+  <si>
+    <t>EC371</t>
+  </si>
+  <si>
+    <t>BU225</t>
+  </si>
+  <si>
+    <t>EN360</t>
+  </si>
+  <si>
+    <t>PY364</t>
+  </si>
+  <si>
+    <t>AH120</t>
+  </si>
+  <si>
+    <t>EC255</t>
+  </si>
+  <si>
+    <t>CL109</t>
+  </si>
+  <si>
+    <t>MU216</t>
+  </si>
+  <si>
+    <t>BU329</t>
+  </si>
+  <si>
+    <t>ED205</t>
+  </si>
+  <si>
+    <t>PY382</t>
+  </si>
+  <si>
+    <t>EN211</t>
+  </si>
+  <si>
+    <t>HY234</t>
+  </si>
+  <si>
+    <t>MU271</t>
+  </si>
+  <si>
+    <t>GY203</t>
+  </si>
+  <si>
+    <t>EN320</t>
+  </si>
+  <si>
+    <t>HY248</t>
+  </si>
+  <si>
+    <t>SO190</t>
+  </si>
+  <si>
+    <t>HY262</t>
+  </si>
+  <si>
+    <t>BU311</t>
+  </si>
+  <si>
+    <t>BU315</t>
+  </si>
+  <si>
+    <t>EN312</t>
+  </si>
+  <si>
+    <t>HY275</t>
+  </si>
+  <si>
+    <t>EN308</t>
+  </si>
+  <si>
+    <t>AS214</t>
+  </si>
+  <si>
+    <t>MA313</t>
+  </si>
+  <si>
+    <t>RE392</t>
+  </si>
+  <si>
+    <t>MB415</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2021F</t>
+  </si>
+  <si>
+    <t>HE121</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>MB355</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>EV373</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>EV126</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DA311</t>
+  </si>
+  <si>
+    <t>EV356</t>
+  </si>
+  <si>
+    <t>CH266</t>
+  </si>
+  <si>
+    <t>RU205</t>
+  </si>
+  <si>
+    <t>MA240</t>
+  </si>
+  <si>
+    <t>MU295</t>
+  </si>
+  <si>
+    <t>IT301</t>
+  </si>
+  <si>
+    <t>BE280</t>
+  </si>
+  <si>
+    <t>SW337</t>
+  </si>
+  <si>
+    <t>SW217</t>
+  </si>
+  <si>
+    <t>EV221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- </t>
+  </si>
+  <si>
+    <t>PS205</t>
+  </si>
+  <si>
+    <t>AR202</t>
+  </si>
+  <si>
+    <t>AR201</t>
+  </si>
+  <si>
+    <t>PS322</t>
+  </si>
+  <si>
+    <t>PS211</t>
+  </si>
+  <si>
+    <t>PS332</t>
+  </si>
+  <si>
+    <t>MB101</t>
+  </si>
+  <si>
+    <t>EV341</t>
+  </si>
+  <si>
+    <t>PH341</t>
+  </si>
+  <si>
+    <t>EV215</t>
+  </si>
+  <si>
+    <t>PS337</t>
+  </si>
+  <si>
+    <t>RU103</t>
+  </si>
+  <si>
+    <t>AH412</t>
+  </si>
+  <si>
+    <t>PS335</t>
+  </si>
+  <si>
+    <t>IT201</t>
+  </si>
+  <si>
+    <t>AN270</t>
+  </si>
+  <si>
+    <t>PY160</t>
+  </si>
+  <si>
+    <t>FM312</t>
+  </si>
+  <si>
+    <t>EV321</t>
+  </si>
+  <si>
+    <t>FM305</t>
+  </si>
+  <si>
+    <t>EV315</t>
+  </si>
+  <si>
+    <t>FM301</t>
+  </si>
+  <si>
+    <t>PY299</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>CH100</t>
+  </si>
+  <si>
+    <t>AN256</t>
+  </si>
+  <si>
+    <t>DS236</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>DS231</t>
+  </si>
+  <si>
+    <t>IT101</t>
+  </si>
+  <si>
+    <t>EV301</t>
+  </si>
+  <si>
+    <t>DS102</t>
+  </si>
+  <si>
+    <t>DS223</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>GR205</t>
+  </si>
+  <si>
+    <t>GR200</t>
+  </si>
+  <si>
+    <t>JA301</t>
+  </si>
+  <si>
+    <t>RU307</t>
+  </si>
+  <si>
+    <t>JA205</t>
+  </si>
+  <si>
+    <t>BE344</t>
+  </si>
+  <si>
+    <t>RM218</t>
+  </si>
+  <si>
+    <t>RM212</t>
+  </si>
+  <si>
+    <t>PS276</t>
+  </si>
+  <si>
+    <t>GR103</t>
+  </si>
+  <si>
+    <t>FR301</t>
+  </si>
+  <si>
+    <t>PA406</t>
+  </si>
+  <si>
+    <t>SO301</t>
+  </si>
+  <si>
+    <t>SO302</t>
+  </si>
+  <si>
+    <t>AN215</t>
+  </si>
+  <si>
+    <t>PH281</t>
+  </si>
+  <si>
+    <t>PH283</t>
+  </si>
+  <si>
+    <t>SP301</t>
+  </si>
+  <si>
+    <t>FR431</t>
+  </si>
+  <si>
+    <t>AN242</t>
+  </si>
+  <si>
+    <t>AN123</t>
+  </si>
+  <si>
+    <t>FR203</t>
+  </si>
+  <si>
+    <t>JA103</t>
+  </si>
+  <si>
+    <t>SO324</t>
+  </si>
+  <si>
+    <t>DS413</t>
+  </si>
+  <si>
+    <t>GS105</t>
+  </si>
+  <si>
+    <t>DS414</t>
+  </si>
+  <si>
+    <t>HK304</t>
+  </si>
+  <si>
+    <t>PS230</t>
+  </si>
+  <si>
+    <t>FR103</t>
+  </si>
+  <si>
+    <t>PH122</t>
+  </si>
+  <si>
+    <t>PH246</t>
+  </si>
+  <si>
+    <t>SW259</t>
+  </si>
+  <si>
+    <t>SW252</t>
+  </si>
+  <si>
+    <t>PH261</t>
+  </si>
+  <si>
+    <t>RE206</t>
+  </si>
+  <si>
+    <t>TH212</t>
+  </si>
+  <si>
+    <t>TH218</t>
+  </si>
+  <si>
+    <t>PY413</t>
+  </si>
+  <si>
+    <t>TH303</t>
+  </si>
+  <si>
+    <t>FG114</t>
+  </si>
+  <si>
+    <t>FG236</t>
+  </si>
+  <si>
+    <t>PC441</t>
+  </si>
+  <si>
+    <t>PC442</t>
+  </si>
+  <si>
+    <t>PY422</t>
+  </si>
+  <si>
+    <t>CC103</t>
+  </si>
+  <si>
+    <t>CC102</t>
+  </si>
+  <si>
+    <t>FG222</t>
+  </si>
+  <si>
+    <t>PC450</t>
+  </si>
+  <si>
+    <t>PY433</t>
+  </si>
+  <si>
+    <t>CN103</t>
+  </si>
+  <si>
+    <t>ED380</t>
+  </si>
+  <si>
+    <t>FG211</t>
+  </si>
+  <si>
+    <t>SP203</t>
+  </si>
+  <si>
+    <t>EN282</t>
+  </si>
+  <si>
+    <t>EN283</t>
+  </si>
+  <si>
+    <t>ED385</t>
+  </si>
+  <si>
+    <t>SP312</t>
+  </si>
+  <si>
+    <t>MU301</t>
+  </si>
+  <si>
+    <t>CN205</t>
+  </si>
+  <si>
+    <t>ED255</t>
+  </si>
+  <si>
+    <t>SP103</t>
+  </si>
+  <si>
+    <t>RE302</t>
+  </si>
+  <si>
+    <t>HY307</t>
+  </si>
+  <si>
+    <t>CL113</t>
+  </si>
+  <si>
+    <t>EC275</t>
+  </si>
+  <si>
+    <t>ED120</t>
+  </si>
+  <si>
+    <t>SO247</t>
+  </si>
+  <si>
+    <t>ED110</t>
+  </si>
+  <si>
+    <t>ED478</t>
+  </si>
+  <si>
+    <t>EN480</t>
+  </si>
+  <si>
+    <t>CL213</t>
+  </si>
+  <si>
+    <t>AH245</t>
+  </si>
+  <si>
+    <t>ED466</t>
+  </si>
+  <si>
+    <t>HY204</t>
+  </si>
+  <si>
+    <t>CL211</t>
+  </si>
+  <si>
+    <t>ED225</t>
+  </si>
+  <si>
+    <t>PC142</t>
+  </si>
+  <si>
+    <t>PY130</t>
+  </si>
+  <si>
+    <t>CL103</t>
+  </si>
+  <si>
+    <t>HY217</t>
+  </si>
+  <si>
+    <t>EC243</t>
+  </si>
+  <si>
+    <t>ED455</t>
+  </si>
+  <si>
+    <t>ED578</t>
+  </si>
+  <si>
+    <t>CL226</t>
+  </si>
+  <si>
+    <t>ED573</t>
+  </si>
+  <si>
+    <t>GY305</t>
+  </si>
+  <si>
+    <t>CL311</t>
+  </si>
+  <si>
+    <t>ED566</t>
+  </si>
+  <si>
+    <t>HY225</t>
+  </si>
+  <si>
+    <t>ED562</t>
+  </si>
+  <si>
+    <t>CL313</t>
+  </si>
+  <si>
+    <t>ED563</t>
+  </si>
+  <si>
+    <t>GY320</t>
+  </si>
+  <si>
+    <t>EN330</t>
+  </si>
+  <si>
+    <t>ED553</t>
+  </si>
+  <si>
+    <t>HY111</t>
+  </si>
+  <si>
+    <t>CL203</t>
+  </si>
+  <si>
+    <t>HY253</t>
+  </si>
+  <si>
+    <t>EN329</t>
+  </si>
+  <si>
+    <t>MU272</t>
+  </si>
+  <si>
+    <t>HE321</t>
+  </si>
+  <si>
+    <t>MU274</t>
+  </si>
+  <si>
+    <t>DA221</t>
+  </si>
+  <si>
+    <t>MU397</t>
+  </si>
+  <si>
+    <t>ED546</t>
+  </si>
+  <si>
+    <t>CL411</t>
+  </si>
+  <si>
+    <t>ED542</t>
+  </si>
+  <si>
+    <t>AH204</t>
+  </si>
+  <si>
+    <t>EC455</t>
+  </si>
+  <si>
+    <t>HY243</t>
+  </si>
+  <si>
+    <t>MA475</t>
+  </si>
+  <si>
+    <t>GY212</t>
+  </si>
+  <si>
+    <t>GY211</t>
+  </si>
+  <si>
+    <t>PC353</t>
+  </si>
+  <si>
+    <t>EN311</t>
+  </si>
+  <si>
+    <t>RE243</t>
+  </si>
+  <si>
+    <t>CL303</t>
+  </si>
+  <si>
+    <t>HY254</t>
+  </si>
+  <si>
+    <t>HE221</t>
+  </si>
+  <si>
+    <t>EN309</t>
+  </si>
+  <si>
+    <t>EV272</t>
+  </si>
+  <si>
+    <t>PC362</t>
+  </si>
+  <si>
+    <t>PC253</t>
+  </si>
+  <si>
+    <t>PC251</t>
+  </si>
+  <si>
+    <t>AS205</t>
+  </si>
+  <si>
+    <t>2022F</t>
+  </si>
+  <si>
+    <t>MB350</t>
+  </si>
+  <si>
+    <t>HY287</t>
+  </si>
+  <si>
+    <t>EC405</t>
+  </si>
+  <si>
+    <t>PH202</t>
+  </si>
+  <si>
+    <t>PH205</t>
+  </si>
+  <si>
+    <t>PS315</t>
+  </si>
+  <si>
+    <t>PS320</t>
+  </si>
+  <si>
+    <t>MU283</t>
+  </si>
+  <si>
+    <t>AN380</t>
+  </si>
+  <si>
+    <t>AN377</t>
+  </si>
+  <si>
+    <t>BE367</t>
+  </si>
+  <si>
+    <t>PS272</t>
+  </si>
+  <si>
+    <t>GS208</t>
+  </si>
+  <si>
+    <t>CO390</t>
+  </si>
+  <si>
+    <t>FR318</t>
+  </si>
+  <si>
+    <t>SO322</t>
+  </si>
+  <si>
+    <t>GR120</t>
+  </si>
+  <si>
+    <t>PH228</t>
+  </si>
+  <si>
+    <t>PH229</t>
+  </si>
+  <si>
+    <t>AN306</t>
+  </si>
+  <si>
+    <t>FG160</t>
+  </si>
+  <si>
+    <t>PH361</t>
+  </si>
+  <si>
+    <t>AN202</t>
+  </si>
+  <si>
+    <t>PS375</t>
+  </si>
+  <si>
+    <t>PS371</t>
+  </si>
+  <si>
+    <t>SO402</t>
+  </si>
+  <si>
+    <t>SO401</t>
+  </si>
+  <si>
+    <t>PY437</t>
+  </si>
+  <si>
+    <t>FG212</t>
+  </si>
+  <si>
+    <t>CL252</t>
+  </si>
+  <si>
+    <t>TH300</t>
+  </si>
+  <si>
+    <t>CL116</t>
+  </si>
+  <si>
+    <t>EN251</t>
+  </si>
+  <si>
+    <t>HY330</t>
+  </si>
+  <si>
+    <t>EN230</t>
+  </si>
+  <si>
+    <t>AH113</t>
+  </si>
+  <si>
+    <t>CL107</t>
+  </si>
+  <si>
+    <t>ED450</t>
+  </si>
+  <si>
+    <t>HY230</t>
+  </si>
+  <si>
+    <t>GY301</t>
+  </si>
+  <si>
+    <t>HY223</t>
+  </si>
+  <si>
+    <t>CL208</t>
+  </si>
+  <si>
+    <t>CL207</t>
+  </si>
+  <si>
+    <t>EC344</t>
+  </si>
+  <si>
+    <t>AH254</t>
+  </si>
+  <si>
+    <t>AH209</t>
+  </si>
+  <si>
+    <t>MU275</t>
+  </si>
+  <si>
+    <t>AS314</t>
+  </si>
+  <si>
+    <t>DA232</t>
+  </si>
+  <si>
+    <t>TH225</t>
+  </si>
+  <si>
+    <t>GY345</t>
+  </si>
+  <si>
+    <t>AH345</t>
+  </si>
+  <si>
+    <t>AS216</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -411,7 +3457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0BC5A9-3164-C14D-9F23-A2351282F435}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -420,52 +3466,156 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>2023</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>37</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="H2">
-        <v>15</v>
+      <c r="E2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>968</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>792</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>788</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>968</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>969</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>17.0</v>
       </c>
     </row>
   </sheetData>
